--- a/backend/data/plantilla_estrategias.xlsx
+++ b/backend/data/plantilla_estrategias.xlsx
@@ -1,42 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanjoalfaro/Downloads/Proyecto Antigravity/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A96D1-1057-E847-94AF-B86530606E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="15240" yWindow="5860" windowWidth="51200" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Estrategias" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="55">
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>logistics</t>
+  </si>
+  <si>
+    <t>marketing</t>
+  </si>
+  <si>
+    <t>keyAction</t>
+  </si>
+  <si>
+    <t>persona_role</t>
+  </si>
+  <si>
+    <t>persona_pain</t>
+  </si>
+  <si>
+    <t>persona_gain</t>
+  </si>
+  <si>
+    <t>Comunidad de Madrid</t>
+  </si>
+  <si>
+    <t>Rehabilitación Oficinas Prime / Data Centers</t>
+  </si>
+  <si>
+    <t>Hub logístico Coslada</t>
+  </si>
+  <si>
+    <t>Eventos IFMA / C&amp;R (Climatización)</t>
+  </si>
+  <si>
+    <t>Desayunos trabajo con PropTechs y SOCIMIs</t>
+  </si>
+  <si>
+    <t>Asset Manager / Facility Manager</t>
+  </si>
+  <si>
+    <t>Edificio con baja certificación difícil de alquilar</t>
+  </si>
+  <si>
+    <t>Revalorización del activo y rentas más altas</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>Hoteles / Oficinas / Sanidad</t>
+  </si>
+  <si>
+    <t>Buena conexión logística y red de instaladores</t>
+  </si>
+  <si>
+    <t>Eventos sectoriales y visitas a ingenierías locales</t>
+  </si>
+  <si>
+    <t>Reuniones con ingenierías y cadenas hoteleras</t>
+  </si>
+  <si>
+    <t>Ingeniero de proyectos / Responsable de mantenimiento</t>
+  </si>
+  <si>
+    <t>Necesidad de mejorar eficiencia energética y confort</t>
+  </si>
+  <si>
+    <t>Ahorro energético y mejor calidad de aire interior</t>
+  </si>
+  <si>
+    <t>Cataluña</t>
+  </si>
+  <si>
+    <t>Andalucía</t>
+  </si>
+  <si>
+    <t>Región de Murcia</t>
+  </si>
+  <si>
+    <t>Industria / Logística / Sector público</t>
+  </si>
+  <si>
+    <t>Acceso por corredores logísticos principales</t>
+  </si>
+  <si>
+    <t>Acciones con asociaciones industriales y ayuntamientos</t>
+  </si>
+  <si>
+    <t>Identificación de proyectos industriales y públicos</t>
+  </si>
+  <si>
+    <t>Director de planta / Técnico municipal</t>
+  </si>
+  <si>
+    <t>Sistemas antiguos con alto coste operativo</t>
+  </si>
+  <si>
+    <t>Reducción de consumos y cumplimiento regulatorio</t>
+  </si>
+  <si>
+    <t>Aragón</t>
+  </si>
+  <si>
+    <t>Castilla y León</t>
+  </si>
+  <si>
+    <t>Castilla-La Mancha</t>
+  </si>
+  <si>
+    <t>Galicia</t>
+  </si>
+  <si>
+    <t>País Vasco</t>
+  </si>
+  <si>
+    <t>Navarra</t>
+  </si>
+  <si>
+    <t>La Rioja</t>
+  </si>
+  <si>
+    <t>Edificios públicos y proyectos puntuales</t>
+  </si>
+  <si>
+    <t>Cobertura mediante distribuidores locales</t>
+  </si>
+  <si>
+    <t>Colaboración con instaladores de confianza</t>
+  </si>
+  <si>
+    <t>Seguimiento de licitaciones y contactos institucionales</t>
+  </si>
+  <si>
+    <t>Técnico de administración pública</t>
+  </si>
+  <si>
+    <t>Presupuesto limitado para renovación</t>
+  </si>
+  <si>
+    <t>Mayor eficiencia con menor inversión</t>
+  </si>
+  <si>
+    <t>Cantabria</t>
+  </si>
+  <si>
+    <t>Principado de Asturias</t>
+  </si>
+  <si>
+    <t>Extremadura</t>
+  </si>
+  <si>
+    <t>Illes Balears</t>
+  </si>
+  <si>
+    <t>Canarias</t>
+  </si>
+  <si>
+    <t>Ceuta</t>
+  </si>
+  <si>
+    <t>Melilla</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,14 +228,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,67 +569,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>region</v>
-      </c>
-      <c r="B1" t="str">
-        <v>focus</v>
-      </c>
-      <c r="C1" t="str">
-        <v>logistics</v>
-      </c>
-      <c r="D1" t="str">
-        <v>marketing</v>
-      </c>
-      <c r="E1" t="str">
-        <v>keyAction</v>
-      </c>
-      <c r="F1" t="str">
-        <v>persona_role</v>
-      </c>
-      <c r="G1" t="str">
-        <v>persona_pain</v>
-      </c>
-      <c r="H1" t="str">
-        <v>persona_gain</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Comunidad de Madrid</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Rehabilitación oficinas</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Hub Coslada</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Eventos IFEMA</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Alianza arquitectos</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Facility Manager</v>
-      </c>
-      <c r="G2" t="str">
-        <v>Costes altos</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Eficiencia</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError sqref="A1:H1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>